--- a/biology/Botanique/Lindmania_arachnoidea/Lindmania_arachnoidea.xlsx
+++ b/biology/Botanique/Lindmania_arachnoidea/Lindmania_arachnoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lindmania arachnoidea est une espèce de plante de la famille des Bromeliaceae, endémique du Venezuela[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lindmania arachnoidea est une espèce de plante de la famille des Bromeliaceae, endémique du Venezuela.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est anciennement nommée Cottendorfia arachnoidea en 1984 par ses inventeurs Lyman Bradford Smith, Julian Alfred Steyermark et Harold Ernest Robinson puis transférée dans le nouveau genre Lindmania en 1986 par Smith[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est anciennement nommée Cottendorfia arachnoidea en 1984 par ses inventeurs Lyman Bradford Smith, Julian Alfred Steyermark et Harold Ernest Robinson puis transférée dans le nouveau genre Lindmania en 1986 par Smith.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est endémique de l'État d'Amazonas au Venezuela[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de l'État d'Amazonas au Venezuela.
 </t>
         </is>
       </c>
